--- a/disp-temp/Hiệu chỉnh nhiệt độ.xlsx
+++ b/disp-temp/Hiệu chỉnh nhiệt độ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Learnings\Learning-Arduino\disp-temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F88A42-FD83-40E2-A6F3-35D5F6FB20BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABACB38A-CF7F-40E5-A099-B24ACCE2CCBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{342A3F37-2B69-471F-BF1C-65F1D779F0D6}"/>
   </bookViews>
@@ -33,6 +33,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Nhiệt độ Pt</t>
+  </si>
+  <si>
+    <t>Trung bình nhiệt độ Pt</t>
+  </si>
+  <si>
+    <t>Nhiệt độ can nhiệt K</t>
+  </si>
+  <si>
+    <t>Vôn</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,118 +419,299 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA085899-8D44-47EF-ABA5-678A0AF8AC66}">
-  <dimension ref="A2:B14"/>
+  <dimension ref="A2:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>24.1</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>40.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="D2">
+        <v>52.3</v>
+      </c>
+      <c r="E2">
+        <v>71.7</v>
+      </c>
+      <c r="F2">
+        <v>78.3</v>
+      </c>
+      <c r="H2">
+        <v>1.28</v>
+      </c>
+      <c r="I2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>23.7</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>40.700000000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="D3">
+        <v>53</v>
+      </c>
+      <c r="E3">
+        <v>71.3</v>
+      </c>
+      <c r="F3">
+        <v>78.5</v>
+      </c>
+      <c r="H3">
+        <v>1.7050000000000001</v>
+      </c>
+      <c r="I3">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>23.6</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>40.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="D4">
+        <v>52.6</v>
+      </c>
+      <c r="E4">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="F4">
+        <v>77.3</v>
+      </c>
+      <c r="H4">
+        <v>2.38</v>
+      </c>
+      <c r="I4">
+        <v>83.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>23.5</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>41.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="D5">
+        <v>52.8</v>
+      </c>
+      <c r="E5">
+        <v>71.3</v>
+      </c>
+      <c r="F5">
+        <v>78.2</v>
+      </c>
+      <c r="H5">
+        <v>2.58</v>
+      </c>
+      <c r="I5">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>23.8</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>40.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="D6">
+        <v>54.1</v>
+      </c>
+      <c r="E6">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="F6">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>24.2</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>40.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="D7">
+        <v>54.2</v>
+      </c>
+      <c r="E7">
+        <v>71.7</v>
+      </c>
+      <c r="F7">
+        <v>77.099999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>24.5</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>41.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="D8">
+        <v>52.5</v>
+      </c>
+      <c r="E8">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="F8">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>23.4</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>41.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="D9">
+        <v>53.7</v>
+      </c>
+      <c r="E9">
+        <v>71.2</v>
+      </c>
+      <c r="F9">
+        <v>78.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>23.5</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>42.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="D10">
+        <v>53.6</v>
+      </c>
+      <c r="E10">
+        <v>71.8</v>
+      </c>
+      <c r="F10">
+        <v>78.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>23.6</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>40.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="D11">
+        <v>53</v>
+      </c>
+      <c r="E11">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="F11">
+        <v>79.099999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>23.8</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>40.799999999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f>AVERAGE(A2:A12)</f>
-        <v>23.790909090909089</v>
+      <c r="D12">
+        <v>52.9</v>
+      </c>
+      <c r="E12">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="F12">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
       </c>
       <c r="B13">
         <f>AVERAGE(B2:B12)</f>
+        <v>23.790909090909089</v>
+      </c>
+      <c r="C13">
+        <f>AVERAGE(C2:C12)</f>
         <v>40.945454545454552</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="D13">
+        <f>AVERAGE(D2:D12)</f>
+        <v>53.154545454545449</v>
+      </c>
+      <c r="E13">
+        <f>AVERAGE(E2:E12)</f>
+        <v>71.645454545454541</v>
+      </c>
+      <c r="F13">
+        <f>AVERAGE(F2:F12)</f>
+        <v>78.227272727272734</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <f>B13/100*3.3</f>
+        <v>0.78509999999999991</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:F14" si="0">C13/100*3.3</f>
+        <v>1.3512000000000002</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1.7541</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>2.3643000000000001</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>2.5815000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
         <v>23.5</v>
       </c>
-      <c r="B14">
+      <c r="C15">
         <v>43.1</v>
+      </c>
+      <c r="D15">
+        <v>59.2</v>
+      </c>
+      <c r="E15">
+        <v>83.1</v>
+      </c>
+      <c r="F15">
+        <v>91.8</v>
       </c>
     </row>
   </sheetData>
